--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wuriguineecom-my.sharepoint.com/personal/iteli_bah_wuriguinee_com/Documents/Bureau/master-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:40009_{F2F5189F-9DE7-40CA-8162-C6447FB36886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1B319C5-30EF-49EC-9E9F-47C7D1D57583}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86AA3B8-B931-49B7-8B2D-061E0B078B0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19470" yWindow="315" windowWidth="9330" windowHeight="9400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19476" yWindow="312" windowWidth="9336" windowHeight="9396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="34">
   <si>
     <t>apptyp_code</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>DOC003</t>
+  </si>
+  <si>
+    <t>POC</t>
+  </si>
+  <si>
+    <t>SOC</t>
   </si>
 </sst>
 </file>
@@ -603,48 +609,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -660,7 +666,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -956,15 +962,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E345"/>
+  <dimension ref="A1:E385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
+      <selection activeCell="F384" sqref="F384"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -981,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +1021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1049,7 +1055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1083,7 +1089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1117,7 +1123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1253,7 +1259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -1355,7 +1361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1406,7 +1412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1423,7 +1429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1491,7 +1497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -1525,7 +1531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1559,7 +1565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1593,7 +1599,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -1610,7 +1616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -1678,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1712,7 +1718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -1729,7 +1735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1746,7 +1752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -1763,7 +1769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1780,7 +1786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -1831,7 +1837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -1848,7 +1854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -1865,7 +1871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -1882,7 +1888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1899,7 +1905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1950,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1967,7 +1973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2001,7 +2007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2018,7 +2024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2052,7 +2058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -2069,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -2086,7 +2092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2103,7 +2109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2137,7 +2143,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +2160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -2222,7 +2228,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -2256,7 +2262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -2273,7 +2279,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -2290,7 +2296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2307,7 +2313,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -2324,7 +2330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -2375,7 +2381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -2392,7 +2398,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2443,7 +2449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -2460,7 +2466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -2477,7 +2483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -2494,7 +2500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +2517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -2528,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -2545,7 +2551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -2579,7 +2585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2613,7 +2619,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -2630,7 +2636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -2681,7 +2687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -2698,7 +2704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -2715,7 +2721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -2732,7 +2738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -2766,7 +2772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -2783,7 +2789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -2817,7 +2823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -2851,7 +2857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -2868,7 +2874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2885,7 +2891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -2902,7 +2908,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -2919,7 +2925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -2936,7 +2942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -2970,7 +2976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -2987,7 +2993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -3004,7 +3010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -3038,7 +3044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -3055,7 +3061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -3089,7 +3095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -3106,7 +3112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -3140,7 +3146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -3157,7 +3163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -3191,7 +3197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -3208,7 +3214,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -3225,7 +3231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -3242,7 +3248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -3259,7 +3265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -3293,7 +3299,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -3344,7 +3350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -3361,7 +3367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -3378,7 +3384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -3395,7 +3401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -3412,7 +3418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -3446,7 +3452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -3463,7 +3469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -3480,7 +3486,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3497,7 +3503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -3514,7 +3520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -3531,7 +3537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -3548,7 +3554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -3565,7 +3571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>7</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>7</v>
       </c>
@@ -3599,7 +3605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>7</v>
       </c>
@@ -3633,7 +3639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>7</v>
       </c>
@@ -3650,7 +3656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>7</v>
       </c>
@@ -3667,7 +3673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -3684,7 +3690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>7</v>
       </c>
@@ -3701,7 +3707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>7</v>
       </c>
@@ -3718,7 +3724,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -3735,7 +3741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>7</v>
       </c>
@@ -3752,7 +3758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>7</v>
       </c>
@@ -3769,7 +3775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -3786,7 +3792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -3803,7 +3809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>7</v>
       </c>
@@ -3820,7 +3826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -3837,7 +3843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>7</v>
       </c>
@@ -3854,7 +3860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>7</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -3888,7 +3894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>7</v>
       </c>
@@ -3905,7 +3911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -3922,7 +3928,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>7</v>
       </c>
@@ -3939,7 +3945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>7</v>
       </c>
@@ -3956,7 +3962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -3973,7 +3979,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>7</v>
       </c>
@@ -3990,7 +3996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -4007,7 +4013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>7</v>
       </c>
@@ -4024,7 +4030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -4041,7 +4047,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>7</v>
       </c>
@@ -4058,7 +4064,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>7</v>
       </c>
@@ -4075,7 +4081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -4092,7 +4098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>7</v>
       </c>
@@ -4109,7 +4115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>7</v>
       </c>
@@ -4126,7 +4132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>7</v>
       </c>
@@ -4143,7 +4149,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -4160,7 +4166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>7</v>
       </c>
@@ -4177,7 +4183,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>7</v>
       </c>
@@ -4194,7 +4200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -4211,7 +4217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>7</v>
       </c>
@@ -4228,7 +4234,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>7</v>
       </c>
@@ -4245,7 +4251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -4262,7 +4268,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -4279,7 +4285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>7</v>
       </c>
@@ -4296,7 +4302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -4313,7 +4319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>7</v>
       </c>
@@ -4330,7 +4336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>7</v>
       </c>
@@ -4347,7 +4353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>7</v>
       </c>
@@ -4364,7 +4370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -4381,7 +4387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -4398,7 +4404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>7</v>
       </c>
@@ -4415,7 +4421,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>7</v>
       </c>
@@ -4432,7 +4438,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>7</v>
       </c>
@@ -4449,7 +4455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>7</v>
       </c>
@@ -4466,7 +4472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>7</v>
       </c>
@@ -4483,7 +4489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>7</v>
       </c>
@@ -4500,7 +4506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -4517,7 +4523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>7</v>
       </c>
@@ -4534,7 +4540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>7</v>
       </c>
@@ -4551,7 +4557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -4568,7 +4574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>7</v>
       </c>
@@ -4585,7 +4591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>7</v>
       </c>
@@ -4602,7 +4608,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>7</v>
       </c>
@@ -4619,7 +4625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -4636,7 +4642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>7</v>
       </c>
@@ -4653,7 +4659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>7</v>
       </c>
@@ -4670,7 +4676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -4687,7 +4693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -4704,7 +4710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -4721,7 +4727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -4738,7 +4744,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -4755,7 +4761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -4772,7 +4778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -4789,7 +4795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -4806,7 +4812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -4823,7 +4829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -4840,7 +4846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>7</v>
       </c>
@@ -4857,7 +4863,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>7</v>
       </c>
@@ -4891,7 +4897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>7</v>
       </c>
@@ -4908,7 +4914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>7</v>
       </c>
@@ -4925,7 +4931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>7</v>
       </c>
@@ -4942,7 +4948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>7</v>
       </c>
@@ -4959,7 +4965,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>7</v>
       </c>
@@ -4976,7 +4982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>7</v>
       </c>
@@ -4993,7 +4999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>7</v>
       </c>
@@ -5010,7 +5016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>7</v>
       </c>
@@ -5027,7 +5033,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>7</v>
       </c>
@@ -5044,7 +5050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>7</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>7</v>
       </c>
@@ -5078,7 +5084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -5095,7 +5101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>7</v>
       </c>
@@ -5112,7 +5118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -5129,7 +5135,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>7</v>
       </c>
@@ -5146,7 +5152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>7</v>
       </c>
@@ -5163,7 +5169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>7</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -5197,7 +5203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>7</v>
       </c>
@@ -5214,7 +5220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>7</v>
       </c>
@@ -5231,7 +5237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>7</v>
       </c>
@@ -5248,7 +5254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>7</v>
       </c>
@@ -5265,7 +5271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>7</v>
       </c>
@@ -5282,7 +5288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>7</v>
       </c>
@@ -5299,7 +5305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>7</v>
       </c>
@@ -5316,7 +5322,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>7</v>
       </c>
@@ -5333,7 +5339,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>7</v>
       </c>
@@ -5350,7 +5356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>7</v>
       </c>
@@ -5367,7 +5373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>7</v>
       </c>
@@ -5401,7 +5407,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>7</v>
       </c>
@@ -5418,7 +5424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>7</v>
       </c>
@@ -5435,7 +5441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>7</v>
       </c>
@@ -5452,7 +5458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>7</v>
       </c>
@@ -5469,7 +5475,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>7</v>
       </c>
@@ -5486,7 +5492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -5503,7 +5509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>7</v>
       </c>
@@ -5520,7 +5526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>7</v>
       </c>
@@ -5537,7 +5543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>7</v>
       </c>
@@ -5554,7 +5560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>7</v>
       </c>
@@ -5571,7 +5577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -5588,7 +5594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>7</v>
       </c>
@@ -5605,7 +5611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>7</v>
       </c>
@@ -5622,7 +5628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>7</v>
       </c>
@@ -5639,7 +5645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>7</v>
       </c>
@@ -5656,7 +5662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>7</v>
       </c>
@@ -5673,7 +5679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>7</v>
       </c>
@@ -5690,7 +5696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>7</v>
       </c>
@@ -5707,7 +5713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>7</v>
       </c>
@@ -5724,7 +5730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>7</v>
       </c>
@@ -5741,7 +5747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>7</v>
       </c>
@@ -5758,7 +5764,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>7</v>
       </c>
@@ -5775,7 +5781,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>7</v>
       </c>
@@ -5792,7 +5798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>7</v>
       </c>
@@ -5809,7 +5815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>7</v>
       </c>
@@ -5826,7 +5832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>7</v>
       </c>
@@ -5843,7 +5849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>7</v>
       </c>
@@ -5860,7 +5866,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>7</v>
       </c>
@@ -5877,7 +5883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>7</v>
       </c>
@@ -5894,7 +5900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>7</v>
       </c>
@@ -5911,7 +5917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>7</v>
       </c>
@@ -5928,7 +5934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -5945,7 +5951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>7</v>
       </c>
@@ -5962,7 +5968,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>7</v>
       </c>
@@ -5979,7 +5985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>7</v>
       </c>
@@ -5996,7 +6002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>7</v>
       </c>
@@ -6013,7 +6019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>7</v>
       </c>
@@ -6030,7 +6036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>7</v>
       </c>
@@ -6047,7 +6053,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>7</v>
       </c>
@@ -6064,7 +6070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>7</v>
       </c>
@@ -6081,7 +6087,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>7</v>
       </c>
@@ -6098,7 +6104,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>7</v>
       </c>
@@ -6115,7 +6121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -6132,7 +6138,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>7</v>
       </c>
@@ -6149,7 +6155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>7</v>
       </c>
@@ -6166,7 +6172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>7</v>
       </c>
@@ -6183,7 +6189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -6200,7 +6206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>7</v>
       </c>
@@ -6217,7 +6223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>7</v>
       </c>
@@ -6234,7 +6240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>7</v>
       </c>
@@ -6251,7 +6257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -6268,7 +6274,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>7</v>
       </c>
@@ -6285,7 +6291,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>7</v>
       </c>
@@ -6302,7 +6308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>7</v>
       </c>
@@ -6319,7 +6325,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>7</v>
       </c>
@@ -6336,7 +6342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>7</v>
       </c>
@@ -6353,7 +6359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>7</v>
       </c>
@@ -6370,7 +6376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>7</v>
       </c>
@@ -6387,7 +6393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>7</v>
       </c>
@@ -6404,7 +6410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>7</v>
       </c>
@@ -6421,7 +6427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>7</v>
       </c>
@@ -6438,7 +6444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>7</v>
       </c>
@@ -6455,7 +6461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>7</v>
       </c>
@@ -6472,7 +6478,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>7</v>
       </c>
@@ -6489,7 +6495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>7</v>
       </c>
@@ -6506,7 +6512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>7</v>
       </c>
@@ -6523,7 +6529,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>7</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>7</v>
       </c>
@@ -6557,7 +6563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -6574,7 +6580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>7</v>
       </c>
@@ -6591,7 +6597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>7</v>
       </c>
@@ -6608,7 +6614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>7</v>
       </c>
@@ -6625,7 +6631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>7</v>
       </c>
@@ -6642,7 +6648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>7</v>
       </c>
@@ -6659,7 +6665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -6676,7 +6682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>7</v>
       </c>
@@ -6693,7 +6699,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>7</v>
       </c>
@@ -6710,7 +6716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>7</v>
       </c>
@@ -6727,7 +6733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>7</v>
       </c>
@@ -6744,7 +6750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>7</v>
       </c>
@@ -6761,7 +6767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>7</v>
       </c>
@@ -6778,7 +6784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>7</v>
       </c>
@@ -6795,7 +6801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>7</v>
       </c>
@@ -6812,7 +6818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>7</v>
       </c>
@@ -6826,6 +6832,686 @@
         <v>16</v>
       </c>
       <c r="E345" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>7</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346" t="s">
+        <v>32</v>
+      </c>
+      <c r="D346" t="s">
+        <v>33</v>
+      </c>
+      <c r="E346" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>7</v>
+      </c>
+      <c r="B347">
+        <v>2</v>
+      </c>
+      <c r="C347" t="s">
+        <v>32</v>
+      </c>
+      <c r="D347" t="s">
+        <v>33</v>
+      </c>
+      <c r="E347" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>7</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348" t="s">
+        <v>32</v>
+      </c>
+      <c r="D348" t="s">
+        <v>33</v>
+      </c>
+      <c r="E348" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>7</v>
+      </c>
+      <c r="B349">
+        <v>4</v>
+      </c>
+      <c r="C349" t="s">
+        <v>32</v>
+      </c>
+      <c r="D349" t="s">
+        <v>33</v>
+      </c>
+      <c r="E349" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>7</v>
+      </c>
+      <c r="B350">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>32</v>
+      </c>
+      <c r="D350" t="s">
+        <v>33</v>
+      </c>
+      <c r="E350" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>7</v>
+      </c>
+      <c r="B351">
+        <v>6</v>
+      </c>
+      <c r="C351" t="s">
+        <v>32</v>
+      </c>
+      <c r="D351" t="s">
+        <v>33</v>
+      </c>
+      <c r="E351" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>7</v>
+      </c>
+      <c r="B352">
+        <v>7</v>
+      </c>
+      <c r="C352" t="s">
+        <v>32</v>
+      </c>
+      <c r="D352" t="s">
+        <v>33</v>
+      </c>
+      <c r="E352" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>7</v>
+      </c>
+      <c r="B353">
+        <v>8</v>
+      </c>
+      <c r="C353" t="s">
+        <v>32</v>
+      </c>
+      <c r="D353" t="s">
+        <v>33</v>
+      </c>
+      <c r="E353" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>7</v>
+      </c>
+      <c r="B354">
+        <v>9</v>
+      </c>
+      <c r="C354" t="s">
+        <v>32</v>
+      </c>
+      <c r="D354" t="s">
+        <v>33</v>
+      </c>
+      <c r="E354" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>7</v>
+      </c>
+      <c r="B355">
+        <v>10</v>
+      </c>
+      <c r="C355" t="s">
+        <v>32</v>
+      </c>
+      <c r="D355" t="s">
+        <v>33</v>
+      </c>
+      <c r="E355" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>7</v>
+      </c>
+      <c r="B356">
+        <v>11</v>
+      </c>
+      <c r="C356" t="s">
+        <v>32</v>
+      </c>
+      <c r="D356" t="s">
+        <v>33</v>
+      </c>
+      <c r="E356" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>7</v>
+      </c>
+      <c r="B357">
+        <v>12</v>
+      </c>
+      <c r="C357" t="s">
+        <v>32</v>
+      </c>
+      <c r="D357" t="s">
+        <v>33</v>
+      </c>
+      <c r="E357" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>7</v>
+      </c>
+      <c r="B358">
+        <v>13</v>
+      </c>
+      <c r="C358" t="s">
+        <v>32</v>
+      </c>
+      <c r="D358" t="s">
+        <v>33</v>
+      </c>
+      <c r="E358" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>7</v>
+      </c>
+      <c r="B359">
+        <v>14</v>
+      </c>
+      <c r="C359" t="s">
+        <v>32</v>
+      </c>
+      <c r="D359" t="s">
+        <v>33</v>
+      </c>
+      <c r="E359" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>7</v>
+      </c>
+      <c r="B360">
+        <v>15</v>
+      </c>
+      <c r="C360" t="s">
+        <v>32</v>
+      </c>
+      <c r="D360" t="s">
+        <v>33</v>
+      </c>
+      <c r="E360" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>7</v>
+      </c>
+      <c r="B361">
+        <v>16</v>
+      </c>
+      <c r="C361" t="s">
+        <v>32</v>
+      </c>
+      <c r="D361" t="s">
+        <v>33</v>
+      </c>
+      <c r="E361" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>7</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+      <c r="C362" t="s">
+        <v>5</v>
+      </c>
+      <c r="D362" t="s">
+        <v>6</v>
+      </c>
+      <c r="E362" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>7</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+      <c r="C363" t="s">
+        <v>5</v>
+      </c>
+      <c r="D363" t="s">
+        <v>9</v>
+      </c>
+      <c r="E363" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>7</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+      <c r="C364" t="s">
+        <v>5</v>
+      </c>
+      <c r="D364" t="s">
+        <v>10</v>
+      </c>
+      <c r="E364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>7</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+      <c r="C365" t="s">
+        <v>5</v>
+      </c>
+      <c r="D365" t="s">
+        <v>11</v>
+      </c>
+      <c r="E365" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>7</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+      <c r="C366" t="s">
+        <v>5</v>
+      </c>
+      <c r="D366" t="s">
+        <v>12</v>
+      </c>
+      <c r="E366" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>7</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+      <c r="C367" t="s">
+        <v>5</v>
+      </c>
+      <c r="D367" t="s">
+        <v>13</v>
+      </c>
+      <c r="E367" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>7</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+      <c r="C368" t="s">
+        <v>5</v>
+      </c>
+      <c r="D368" t="s">
+        <v>14</v>
+      </c>
+      <c r="E368" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>7</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+      <c r="C369" t="s">
+        <v>5</v>
+      </c>
+      <c r="D369" t="s">
+        <v>15</v>
+      </c>
+      <c r="E369" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>7</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+      <c r="C370" t="s">
+        <v>5</v>
+      </c>
+      <c r="D370" t="s">
+        <v>16</v>
+      </c>
+      <c r="E370" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>7</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+      <c r="C371" t="s">
+        <v>17</v>
+      </c>
+      <c r="D371" t="s">
+        <v>18</v>
+      </c>
+      <c r="E371" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>7</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+      <c r="C372" t="s">
+        <v>17</v>
+      </c>
+      <c r="D372" t="s">
+        <v>19</v>
+      </c>
+      <c r="E372" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>7</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+      <c r="C373" t="s">
+        <v>17</v>
+      </c>
+      <c r="D373" t="s">
+        <v>20</v>
+      </c>
+      <c r="E373" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>7</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+      <c r="C374" t="s">
+        <v>17</v>
+      </c>
+      <c r="D374" t="s">
+        <v>21</v>
+      </c>
+      <c r="E374" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>7</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+      <c r="C375" t="s">
+        <v>17</v>
+      </c>
+      <c r="D375" t="s">
+        <v>22</v>
+      </c>
+      <c r="E375" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>7</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+      <c r="C376" t="s">
+        <v>23</v>
+      </c>
+      <c r="D376" t="s">
+        <v>6</v>
+      </c>
+      <c r="E376" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>7</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+      <c r="C377" t="s">
+        <v>23</v>
+      </c>
+      <c r="D377" t="s">
+        <v>24</v>
+      </c>
+      <c r="E377" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>7</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+      <c r="C378" t="s">
+        <v>23</v>
+      </c>
+      <c r="D378" t="s">
+        <v>10</v>
+      </c>
+      <c r="E378" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>7</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+      <c r="C379" t="s">
+        <v>23</v>
+      </c>
+      <c r="D379" t="s">
+        <v>25</v>
+      </c>
+      <c r="E379" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>7</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+      <c r="C380" t="s">
+        <v>23</v>
+      </c>
+      <c r="D380" t="s">
+        <v>14</v>
+      </c>
+      <c r="E380" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>7</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+      <c r="C381" t="s">
+        <v>26</v>
+      </c>
+      <c r="D381" t="s">
+        <v>27</v>
+      </c>
+      <c r="E381" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>7</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+      <c r="C382" t="s">
+        <v>28</v>
+      </c>
+      <c r="D382" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>7</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+      <c r="C383" t="s">
+        <v>28</v>
+      </c>
+      <c r="D383" t="s">
+        <v>10</v>
+      </c>
+      <c r="E383" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>7</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+      <c r="C384" t="s">
+        <v>28</v>
+      </c>
+      <c r="D384" t="s">
+        <v>16</v>
+      </c>
+      <c r="E384" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>7</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+      <c r="C385" t="s">
+        <v>32</v>
+      </c>
+      <c r="D385" t="s">
+        <v>33</v>
+      </c>
+      <c r="E385" t="s">
         <v>8</v>
       </c>
     </row>

--- a/mosip_master/xlsx/applicant_valid_document.xlsx
+++ b/mosip_master/xlsx/applicant_valid_document.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-guinea\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86AA3B8-B931-49B7-8B2D-061E0B078B0C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FFC938-8120-4CD1-ACE0-4C0585017845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19476" yWindow="312" windowWidth="9336" windowHeight="9396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1541" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="34">
   <si>
     <t>apptyp_code</t>
   </si>
@@ -962,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E385"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" workbookViewId="0">
-      <selection activeCell="F384" sqref="F384"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="I384" sqref="I384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6075,13 +6075,13 @@
         <v>7</v>
       </c>
       <c r="B301">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C301" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D301" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E301" t="s">
         <v>8</v>
@@ -6092,13 +6092,13 @@
         <v>7</v>
       </c>
       <c r="B302">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C302" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D302" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E302" t="s">
         <v>8</v>
@@ -6109,13 +6109,13 @@
         <v>7</v>
       </c>
       <c r="B303">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C303" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D303" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E303" t="s">
         <v>8</v>
@@ -6126,13 +6126,13 @@
         <v>7</v>
       </c>
       <c r="B304">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C304" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D304" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E304" t="s">
         <v>8</v>
@@ -6143,13 +6143,13 @@
         <v>7</v>
       </c>
       <c r="B305">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C305" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D305" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E305" t="s">
         <v>8</v>
@@ -6166,7 +6166,7 @@
         <v>5</v>
       </c>
       <c r="D306" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E306" t="s">
         <v>8</v>
@@ -6183,7 +6183,7 @@
         <v>5</v>
       </c>
       <c r="D307" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E307" t="s">
         <v>8</v>
@@ -6200,7 +6200,7 @@
         <v>5</v>
       </c>
       <c r="D308" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E308" t="s">
         <v>8</v>
@@ -6217,7 +6217,7 @@
         <v>5</v>
       </c>
       <c r="D309" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E309" t="s">
         <v>8</v>
@@ -6234,7 +6234,7 @@
         <v>5</v>
       </c>
       <c r="D310" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E310" t="s">
         <v>8</v>
@@ -6251,7 +6251,7 @@
         <v>5</v>
       </c>
       <c r="D311" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E311" t="s">
         <v>8</v>
@@ -6265,10 +6265,10 @@
         <v>15</v>
       </c>
       <c r="C312" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D312" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E312" t="s">
         <v>8</v>
@@ -6282,10 +6282,10 @@
         <v>15</v>
       </c>
       <c r="C313" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D313" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E313" t="s">
         <v>8</v>
@@ -6299,10 +6299,10 @@
         <v>15</v>
       </c>
       <c r="C314" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D314" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E314" t="s">
         <v>8</v>
@@ -6316,10 +6316,10 @@
         <v>15</v>
       </c>
       <c r="C315" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D315" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E315" t="s">
         <v>8</v>
@@ -6333,10 +6333,10 @@
         <v>15</v>
       </c>
       <c r="C316" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D316" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E316" t="s">
         <v>8</v>
@@ -6350,10 +6350,10 @@
         <v>15</v>
       </c>
       <c r="C317" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D317" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E317" t="s">
         <v>8</v>
@@ -6367,10 +6367,10 @@
         <v>15</v>
       </c>
       <c r="C318" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D318" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E318" t="s">
         <v>8</v>
@@ -6384,10 +6384,10 @@
         <v>15</v>
       </c>
       <c r="C319" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D319" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E319" t="s">
         <v>8</v>
@@ -6401,10 +6401,10 @@
         <v>15</v>
       </c>
       <c r="C320" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D320" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E320" t="s">
         <v>8</v>
@@ -6418,10 +6418,10 @@
         <v>15</v>
       </c>
       <c r="C321" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D321" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E321" t="s">
         <v>8</v>
@@ -6435,10 +6435,10 @@
         <v>15</v>
       </c>
       <c r="C322" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D322" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E322" t="s">
         <v>8</v>
@@ -6452,10 +6452,10 @@
         <v>15</v>
       </c>
       <c r="C323" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D323" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E323" t="s">
         <v>8</v>
@@ -6469,7 +6469,7 @@
         <v>15</v>
       </c>
       <c r="C324" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D324" t="s">
         <v>10</v>
@@ -6486,10 +6486,10 @@
         <v>15</v>
       </c>
       <c r="C325" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D325" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E325" t="s">
         <v>8</v>
@@ -6500,13 +6500,13 @@
         <v>7</v>
       </c>
       <c r="B326">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C326" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D326" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E326" t="s">
         <v>8</v>
@@ -6517,13 +6517,13 @@
         <v>7</v>
       </c>
       <c r="B327">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C327" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="D327" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E327" t="s">
         <v>8</v>
@@ -6534,10 +6534,10 @@
         <v>7</v>
       </c>
       <c r="B328">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C328" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D328" t="s">
         <v>6</v>
@@ -6551,13 +6551,13 @@
         <v>7</v>
       </c>
       <c r="B329">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C329" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D329" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E329" t="s">
         <v>8</v>
@@ -6568,13 +6568,13 @@
         <v>7</v>
       </c>
       <c r="B330">
+        <v>15</v>
+      </c>
+      <c r="C330" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" t="s">
         <v>16</v>
-      </c>
-      <c r="C330" t="s">
-        <v>5</v>
-      </c>
-      <c r="D330" t="s">
-        <v>10</v>
       </c>
       <c r="E330" t="s">
         <v>8</v>
@@ -6591,7 +6591,7 @@
         <v>5</v>
       </c>
       <c r="D331" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E331" t="s">
         <v>8</v>
@@ -6608,7 +6608,7 @@
         <v>5</v>
       </c>
       <c r="D332" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E332" t="s">
         <v>8</v>
@@ -6625,7 +6625,7 @@
         <v>5</v>
       </c>
       <c r="D333" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E333" t="s">
         <v>8</v>
@@ -6642,7 +6642,7 @@
         <v>5</v>
       </c>
       <c r="D334" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E334" t="s">
         <v>8</v>
@@ -6659,7 +6659,7 @@
         <v>5</v>
       </c>
       <c r="D335" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E335" t="s">
         <v>8</v>
@@ -6676,7 +6676,7 @@
         <v>5</v>
       </c>
       <c r="D336" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E336" t="s">
         <v>8</v>
@@ -6690,10 +6690,10 @@
         <v>16</v>
       </c>
       <c r="C337" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D337" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E337" t="s">
         <v>8</v>
@@ -6707,10 +6707,10 @@
         <v>16</v>
       </c>
       <c r="C338" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D338" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E338" t="s">
         <v>8</v>
@@ -6724,10 +6724,10 @@
         <v>16</v>
       </c>
       <c r="C339" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D339" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E339" t="s">
         <v>8</v>
@@ -6741,10 +6741,10 @@
         <v>16</v>
       </c>
       <c r="C340" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D340" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E340" t="s">
         <v>8</v>
@@ -6758,10 +6758,10 @@
         <v>16</v>
       </c>
       <c r="C341" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D341" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E341" t="s">
         <v>8</v>
@@ -6775,10 +6775,10 @@
         <v>16</v>
       </c>
       <c r="C342" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D342" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E342" t="s">
         <v>8</v>
@@ -6792,10 +6792,10 @@
         <v>16</v>
       </c>
       <c r="C343" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D343" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E343" t="s">
         <v>8</v>
@@ -6809,10 +6809,10 @@
         <v>16</v>
       </c>
       <c r="C344" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D344" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E344" t="s">
         <v>8</v>
@@ -6826,10 +6826,10 @@
         <v>16</v>
       </c>
       <c r="C345" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D345" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E345" t="s">
         <v>8</v>
@@ -6840,13 +6840,13 @@
         <v>7</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C346" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D346" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E346" t="s">
         <v>8</v>
@@ -6857,13 +6857,13 @@
         <v>7</v>
       </c>
       <c r="B347">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C347" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D347" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E347" t="s">
         <v>8</v>
@@ -6874,13 +6874,13 @@
         <v>7</v>
       </c>
       <c r="B348">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C348" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D348" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E348" t="s">
         <v>8</v>
@@ -6891,13 +6891,13 @@
         <v>7</v>
       </c>
       <c r="B349">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C349" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D349" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="E349" t="s">
         <v>8</v>
@@ -6908,13 +6908,13 @@
         <v>7</v>
       </c>
       <c r="B350">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C350" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D350" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E350" t="s">
         <v>8</v>
@@ -6925,7 +6925,7 @@
         <v>7</v>
       </c>
       <c r="B351">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C351" t="s">
         <v>32</v>
@@ -6942,7 +6942,7 @@
         <v>7</v>
       </c>
       <c r="B352">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C352" t="s">
         <v>32</v>
@@ -6959,7 +6959,7 @@
         <v>7</v>
       </c>
       <c r="B353">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C353" t="s">
         <v>32</v>
@@ -6976,7 +6976,7 @@
         <v>7</v>
       </c>
       <c r="B354">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C354" t="s">
         <v>32</v>
@@ -6993,7 +6993,7 @@
         <v>7</v>
       </c>
       <c r="B355">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C355" t="s">
         <v>32</v>
@@ -7010,7 +7010,7 @@
         <v>7</v>
       </c>
       <c r="B356">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C356" t="s">
         <v>32</v>
@@ -7027,7 +7027,7 @@
         <v>7</v>
       </c>
       <c r="B357">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C357" t="s">
         <v>32</v>
@@ -7044,7 +7044,7 @@
         <v>7</v>
       </c>
       <c r="B358">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C358" t="s">
         <v>32</v>
@@ -7061,7 +7061,7 @@
         <v>7</v>
       </c>
       <c r="B359">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C359" t="s">
         <v>32</v>
@@ -7078,7 +7078,7 @@
         <v>7</v>
       </c>
       <c r="B360">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C360" t="s">
         <v>32</v>
@@ -7095,7 +7095,7 @@
         <v>7</v>
       </c>
       <c r="B361">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C361" t="s">
         <v>32</v>
@@ -7112,13 +7112,13 @@
         <v>7</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C362" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D362" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="E362" t="s">
         <v>8</v>
@@ -7129,13 +7129,13 @@
         <v>7</v>
       </c>
       <c r="B363">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C363" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D363" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E363" t="s">
         <v>8</v>
@@ -7146,13 +7146,13 @@
         <v>7</v>
       </c>
       <c r="B364">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C364" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D364" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E364" t="s">
         <v>8</v>
@@ -7163,13 +7163,13 @@
         <v>7</v>
       </c>
       <c r="B365">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C365" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D365" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E365" t="s">
         <v>8</v>
@@ -7180,13 +7180,13 @@
         <v>7</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C366" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D366" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E366" t="s">
         <v>8</v>
@@ -7203,7 +7203,7 @@
         <v>5</v>
       </c>
       <c r="D367" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E367" t="s">
         <v>8</v>
@@ -7220,7 +7220,7 @@
         <v>5</v>
       </c>
       <c r="D368" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E368" t="s">
         <v>8</v>
@@ -7237,7 +7237,7 @@
         <v>5</v>
       </c>
       <c r="D369" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E369" t="s">
         <v>8</v>
@@ -7254,7 +7254,7 @@
         <v>5</v>
       </c>
       <c r="D370" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E370" t="s">
         <v>8</v>
@@ -7268,10 +7268,10 @@
         <v>0</v>
       </c>
       <c r="C371" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D371" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E371" t="s">
         <v>8</v>
@@ -7285,10 +7285,10 @@
         <v>0</v>
       </c>
       <c r="C372" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D372" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E372" t="s">
         <v>8</v>
@@ -7302,10 +7302,10 @@
         <v>0</v>
       </c>
       <c r="C373" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D373" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E373" t="s">
         <v>8</v>
@@ -7319,10 +7319,10 @@
         <v>0</v>
       </c>
       <c r="C374" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D374" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E374" t="s">
         <v>8</v>
@@ -7336,10 +7336,10 @@
         <v>0</v>
       </c>
       <c r="C375" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D375" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E375" t="s">
         <v>8</v>
@@ -7353,10 +7353,10 @@
         <v>0</v>
       </c>
       <c r="C376" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D376" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E376" t="s">
         <v>8</v>
@@ -7370,10 +7370,10 @@
         <v>0</v>
       </c>
       <c r="C377" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D377" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E377" t="s">
         <v>8</v>
@@ -7387,10 +7387,10 @@
         <v>0</v>
       </c>
       <c r="C378" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D378" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E378" t="s">
         <v>8</v>
@@ -7404,10 +7404,10 @@
         <v>0</v>
       </c>
       <c r="C379" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D379" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E379" t="s">
         <v>8</v>
@@ -7421,10 +7421,10 @@
         <v>0</v>
       </c>
       <c r="C380" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D380" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E380" t="s">
         <v>8</v>
@@ -7438,10 +7438,10 @@
         <v>0</v>
       </c>
       <c r="C381" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D381" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E381" t="s">
         <v>8</v>
@@ -7455,10 +7455,10 @@
         <v>0</v>
       </c>
       <c r="C382" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D382" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E382" t="s">
         <v>8</v>
@@ -7472,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D383" t="s">
         <v>10</v>
@@ -7489,10 +7489,10 @@
         <v>0</v>
       </c>
       <c r="C384" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D384" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E384" t="s">
         <v>8</v>
@@ -7506,12 +7506,97 @@
         <v>0</v>
       </c>
       <c r="C385" t="s">
+        <v>23</v>
+      </c>
+      <c r="D385" t="s">
+        <v>14</v>
+      </c>
+      <c r="E385" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>7</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+      <c r="C386" t="s">
+        <v>26</v>
+      </c>
+      <c r="D386" t="s">
+        <v>27</v>
+      </c>
+      <c r="E386" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>7</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+      <c r="C387" t="s">
+        <v>28</v>
+      </c>
+      <c r="D387" t="s">
+        <v>6</v>
+      </c>
+      <c r="E387" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>7</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+      <c r="C388" t="s">
+        <v>28</v>
+      </c>
+      <c r="D388" t="s">
+        <v>10</v>
+      </c>
+      <c r="E388" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>7</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+      <c r="C389" t="s">
+        <v>28</v>
+      </c>
+      <c r="D389" t="s">
+        <v>16</v>
+      </c>
+      <c r="E389" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>7</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+      <c r="C390" t="s">
         <v>32</v>
       </c>
-      <c r="D385" t="s">
+      <c r="D390" t="s">
         <v>33</v>
       </c>
-      <c r="E385" t="s">
+      <c r="E390" t="s">
         <v>8</v>
       </c>
     </row>
